--- a/model_parameters.xlsx
+++ b/model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KSLab\Green_Algorithm\llmcarbon\LLMCarbon_Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D9842B-A226-481F-8A19-7B447930B6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3785D9BD-D826-4893-BE20-1DB83C6D4480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="1540" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
